--- a/biology/Botanique/Magnolia_champaca/Magnolia_champaca.xlsx
+++ b/biology/Botanique/Magnolia_champaca/Magnolia_champaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia champaca (anciennement Michelia champaca), est un arbre sempervirent pouvant faire jusqu'à 50 mètres de haut, originaire de l'écozone indomalaise. Il est surtout connu pour la forte odeur de ses fleurs blanches et jaunes. Cependant, il est surtout cultivé pour son bois. Il est aussi utilisé en architecture du paysage. Pour le bouddhisme, Maitreya, le futur bouddha, atteindra l’illumination sous cet arbre.
 </t>
